--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H2">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I2">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J2">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N2">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O2">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P2">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q2">
-        <v>28.209589477805</v>
+        <v>9.254051671202999</v>
       </c>
       <c r="R2">
-        <v>253.886305300245</v>
+        <v>83.286465040827</v>
       </c>
       <c r="S2">
-        <v>0.4095595315639409</v>
+        <v>0.1969787129821524</v>
       </c>
       <c r="T2">
-        <v>0.4095595315639411</v>
+        <v>0.1969787129821525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H3">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I3">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J3">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.317095</v>
       </c>
       <c r="O3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q3">
-        <v>9.463980517965</v>
+        <v>1.697364612315</v>
       </c>
       <c r="R3">
-        <v>85.175824661685</v>
+        <v>15.276281510835</v>
       </c>
       <c r="S3">
-        <v>0.137402333724766</v>
+        <v>0.03612954721613252</v>
       </c>
       <c r="T3">
-        <v>0.137402333724766</v>
+        <v>0.03612954721613252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H4">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I4">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J4">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.840633</v>
       </c>
       <c r="O4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q4">
-        <v>8.310410673384332</v>
+        <v>1.490471896474333</v>
       </c>
       <c r="R4">
-        <v>74.793696060459</v>
+        <v>13.414247068269</v>
       </c>
       <c r="S4">
-        <v>0.1206542869109522</v>
+        <v>0.0317256966283414</v>
       </c>
       <c r="T4">
-        <v>0.1206542869109522</v>
+        <v>0.0317256966283414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N5">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O5">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P5">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q5">
-        <v>4.739303460006667</v>
+        <v>8.668588069404001</v>
       </c>
       <c r="R5">
-        <v>42.65373114006</v>
+        <v>78.017292624636</v>
       </c>
       <c r="S5">
-        <v>0.06880734321025388</v>
+        <v>0.1845167265055554</v>
       </c>
       <c r="T5">
-        <v>0.06880734321025389</v>
+        <v>0.1845167265055554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.317095</v>
       </c>
       <c r="O6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q6">
         <v>1.58997973542</v>
@@ -818,10 +818,10 @@
         <v>14.30981761878</v>
       </c>
       <c r="S6">
-        <v>0.02308404225971187</v>
+        <v>0.03384378789728767</v>
       </c>
       <c r="T6">
-        <v>0.02308404225971188</v>
+        <v>0.03384378789728767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.840633</v>
       </c>
       <c r="O7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q7">
         <v>1.396176221899111</v>
@@ -880,10 +880,10 @@
         <v>12.565585997092</v>
       </c>
       <c r="S7">
-        <v>0.02027031552060027</v>
+        <v>0.02971854978309405</v>
       </c>
       <c r="T7">
-        <v>0.02027031552060028</v>
+        <v>0.02971854978309405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H8">
         <v>1.382894</v>
       </c>
       <c r="I8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N8">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O8">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P8">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q8">
-        <v>9.305311644956667</v>
+        <v>17.020204379874</v>
       </c>
       <c r="R8">
-        <v>83.74780480461</v>
+        <v>153.181839418866</v>
       </c>
       <c r="S8">
-        <v>0.1350987075286386</v>
+        <v>0.3622864959651715</v>
       </c>
       <c r="T8">
-        <v>0.1350987075286386</v>
+        <v>0.3622864959651715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H9">
         <v>1.382894</v>
       </c>
       <c r="I9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.317095</v>
       </c>
       <c r="O9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q9">
         <v>3.12182097477</v>
       </c>
       <c r="R9">
-        <v>28.09638877293</v>
+        <v>28.09638877292999</v>
       </c>
       <c r="S9">
-        <v>0.04532400363568754</v>
+        <v>0.06645005880877514</v>
       </c>
       <c r="T9">
-        <v>0.04532400363568755</v>
+        <v>0.06645005880877514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H10">
         <v>1.382894</v>
       </c>
       <c r="I10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>17.840633</v>
       </c>
       <c r="O10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q10">
         <v>2.741300481322444</v>
@@ -1066,10 +1066,10 @@
         <v>24.671704331902</v>
       </c>
       <c r="S10">
-        <v>0.03979943564544867</v>
+        <v>0.05835042421348989</v>
       </c>
       <c r="T10">
-        <v>0.03979943564544869</v>
+        <v>0.0583504242134899</v>
       </c>
     </row>
   </sheetData>
